--- a/biology/Zoologie/Conus_chaldaeus/Conus_chaldaeus.xlsx
+++ b/biology/Zoologie/Conus_chaldaeus/Conus_chaldaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cône astrologue
 Le Cône astrologue, Conus chaldaeus, est une espèce de mollusques gastéropodes marins.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit cône (30 mm max), à la coquille courte, large et épaisse, avec une spire relativement élevée et une ouverture de plus en plus large vers la base. Elle est de couleur crème parcourue de motifs bruns plus ou moins réguliers, en forme de rectangles, de chevrons ou de zigzags. Ces motifs sont barrés par deux bandes claires plus ou moins marquées, l'une à l'épaulement et l'autre au tiers supérieur de la coquille. La coquille est souvent couverte d'algues et d'épibiontes qui rendent l'identification in situ difficile. L'intérieur est généralement blanc, et le corps de l'animal est ocre[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit cône (30 mm max), à la coquille courte, large et épaisse, avec une spire relativement élevée et une ouverture de plus en plus large vers la base. Elle est de couleur crème parcourue de motifs bruns plus ou moins réguliers, en forme de rectangles, de chevrons ou de zigzags. Ces motifs sont barrés par deux bandes claires plus ou moins marquées, l'une à l'épaulement et l'autre au tiers supérieur de la coquille. La coquille est souvent couverte d'algues et d'épibiontes qui rendent l'identification in situ difficile. L'intérieur est généralement blanc, et le corps de l'animal est ocre.
 			Spécimen in situ à La Réunion.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans les lagons coralliens de l'océan Indien occidental tropical, notamment sur les côtes est-africaines et aux Mascareignes. Il se rencontre entre la surface et les premiers mètres de profondeur, sur les fonds sableux des récifs ; il est de mœurs nocturnes et passe la journée bien dissimulé[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans les lagons coralliens de l'océan Indien occidental tropical, notamment sur les côtes est-africaines et aux Mascareignes. Il se rencontre entre la surface et les premiers mètres de profondeur, sur les fonds sableux des récifs ; il est de mœurs nocturnes et passe la journée bien dissimulé.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les cônes, Conus chaldaeus est un prédateur carnivore efficace. Il chasse principalement des polychaetes (néréides, eunicides), qu'il tue à distance au moyen des dards empoisonnés que projette son siphon[4]. Ces dards peuvent occasionner des douleurs chez l'Homme, mais C. chaldaeus n'est pas dangereux (contrairement à d'autres espèces de cônes).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les cônes, Conus chaldaeus est un prédateur carnivore efficace. Il chasse principalement des polychaetes (néréides, eunicides), qu'il tue à distance au moyen des dards empoisonnés que projette son siphon. Ces dards peuvent occasionner des douleurs chez l'Homme, mais C. chaldaeus n'est pas dangereux (contrairement à d'autres espèces de cônes).
 </t>
         </is>
       </c>
